--- a/AE481-Airplane-Data-Sheet-2025.xlsx
+++ b/AE481-Airplane-Data-Sheet-2025.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10824"/>
   <workbookPr date1904="1" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://umich.sharepoint.com/sites/IDEASLab-481/Shared Documents/481/2025/Datasheet/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/michaelchen/UMich/Class/F25/Aero_481/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="261" documentId="8_{5ADD48F9-8D40-4B1F-A714-52A1600E665C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1A944FC7-29C2-4F1B-A40D-03991ACF3C63}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77695BE4-0A98-4B4A-9373-E841DAE73531}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="858" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="20740" tabRatio="858" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="General - Overall" sheetId="1" r:id="rId1"/>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="183">
   <si>
     <t>Group number</t>
   </si>
@@ -611,6 +611,12 @@
   <si>
     <t>Arrestment (Gear Down)</t>
   </si>
+  <si>
+    <t>No Thai Grubbin</t>
+  </si>
+  <si>
+    <t>Michael Chen</t>
+  </si>
 </sst>
 </file>
 
@@ -622,7 +628,7 @@
     <numFmt numFmtId="166" formatCode="0.0000"/>
     <numFmt numFmtId="167" formatCode="0.0"/>
   </numFmts>
-  <fonts count="11">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -689,6 +695,12 @@
       <sz val="11"/>
       <color rgb="FF394D7E"/>
       <name val="Helvetica Neue"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF333399"/>
+      <name val="Helvetica Neue"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="12">
@@ -936,7 +948,7 @@
       <alignment vertical="top"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="top"/>
     </xf>
@@ -947,9 +959,6 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1084,6 +1093,21 @@
     <xf numFmtId="3" fontId="1" fillId="11" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -1099,29 +1123,20 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1510,46 +1525,52 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AMK5"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B45" sqref="B45"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="13.8"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="15.69921875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="49.19921875" style="1" customWidth="1"/>
-    <col min="3" max="1025" width="10.19921875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="15.6640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="49.1640625" style="1" customWidth="1"/>
+    <col min="3" max="1025" width="10.1640625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="20.25" customHeight="1">
+    <row r="1" spans="1:2" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3"/>
-    </row>
-    <row r="2" spans="1:2" ht="20.25" customHeight="1">
+      <c r="B1" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="3"/>
-    </row>
-    <row r="3" spans="1:2" ht="20.25" customHeight="1">
+      <c r="B2" s="61" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="4"/>
-    </row>
-    <row r="4" spans="1:2" ht="20.25" customHeight="1">
+      <c r="B3" s="62" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="5"/>
-    </row>
-    <row r="5" spans="1:2" ht="20.25" customHeight="1">
+      <c r="B4" s="4"/>
+    </row>
+    <row r="5" spans="1:2" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="6"/>
+      <c r="B5" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.51180555555555496" footer="0.51180555555555496"/>
@@ -1565,80 +1586,80 @@
       <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="13.8"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="22.5" style="1" customWidth="1"/>
     <col min="2" max="3" width="14" style="1" customWidth="1"/>
-    <col min="4" max="1025" width="10.19921875" style="1" customWidth="1"/>
+    <col min="4" max="1025" width="10.1640625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="19.2" customHeight="1">
-      <c r="A1" s="7"/>
-      <c r="B1" s="7" t="s">
+    <row r="1" spans="1:3" ht="19.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="6"/>
+      <c r="B1" s="6" t="s">
         <v>139</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="6" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="20.25" customHeight="1">
-      <c r="A2" s="8" t="s">
+    <row r="2" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="7" t="s">
         <v>141</v>
       </c>
-      <c r="B2" s="24" t="s">
+      <c r="B2" s="23" t="s">
         <v>142</v>
       </c>
-      <c r="C2" s="25"/>
-    </row>
-    <row r="3" spans="1:3" ht="20.25" customHeight="1">
-      <c r="A3" s="12" t="s">
+      <c r="C2" s="24"/>
+    </row>
+    <row r="3" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="11" t="s">
         <v>143</v>
       </c>
-      <c r="B3" s="24" t="s">
+      <c r="B3" s="23" t="s">
         <v>142</v>
       </c>
-      <c r="C3" s="25"/>
-    </row>
-    <row r="4" spans="1:3" ht="20.25" customHeight="1">
-      <c r="A4" s="12" t="s">
+      <c r="C3" s="24"/>
+    </row>
+    <row r="4" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="11" t="s">
         <v>144</v>
       </c>
-      <c r="B4" s="24" t="s">
+      <c r="B4" s="23" t="s">
         <v>142</v>
       </c>
-      <c r="C4" s="25"/>
-    </row>
-    <row r="5" spans="1:3" ht="20.25" customHeight="1">
-      <c r="A5" s="12" t="s">
+      <c r="C4" s="24"/>
+    </row>
+    <row r="5" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="11" t="s">
         <v>145</v>
       </c>
-      <c r="B5" s="24" t="s">
+      <c r="B5" s="23" t="s">
         <v>142</v>
       </c>
-      <c r="C5" s="10"/>
-    </row>
-    <row r="6" spans="1:3" ht="20.25" customHeight="1">
-      <c r="A6" s="12" t="s">
+      <c r="C5" s="9"/>
+    </row>
+    <row r="6" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="11" t="s">
         <v>146</v>
       </c>
-      <c r="B6" s="26" t="s">
+      <c r="B6" s="25" t="s">
         <v>142</v>
       </c>
-      <c r="C6" s="36"/>
-    </row>
-    <row r="7" spans="1:3" ht="18.600000000000001" customHeight="1">
-      <c r="A7" s="12" t="s">
+      <c r="C6" s="35"/>
+    </row>
+    <row r="7" spans="1:3" ht="18.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="11" t="s">
         <v>147</v>
       </c>
-      <c r="B7" s="26"/>
-      <c r="C7" s="36"/>
-    </row>
-    <row r="8" spans="1:3" ht="19.2" customHeight="1">
-      <c r="A8" s="12" t="s">
+      <c r="B7" s="25"/>
+      <c r="C7" s="35"/>
+    </row>
+    <row r="8" spans="1:3" ht="19.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="11" t="s">
         <v>148</v>
       </c>
-      <c r="B8" s="26"/>
-      <c r="C8" s="36"/>
+      <c r="B8" s="25"/>
+      <c r="C8" s="35"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.51180555555555496" footer="0.51180555555555496"/>
@@ -1654,43 +1675,43 @@
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="13.8"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="7" width="16" style="1" customWidth="1"/>
-    <col min="8" max="1024" width="10.19921875" style="1" customWidth="1"/>
+    <col min="8" max="1024" width="10.1640625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="43.95" customHeight="1">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:7" ht="44" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="6" t="s">
         <v>149</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="6" t="s">
         <v>150</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="6" t="s">
         <v>151</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="6" t="s">
         <v>152</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E1" s="6" t="s">
         <v>153</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="F1" s="6" t="s">
         <v>154</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="G1" s="6" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="20.25" customHeight="1">
-      <c r="A2" s="8"/>
-      <c r="B2" s="17"/>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
-      <c r="F2" s="17"/>
-      <c r="G2" s="38"/>
+    <row r="2" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="7"/>
+      <c r="B2" s="16"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="16"/>
+      <c r="G2" s="37"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.51180555555555496" footer="0.51180555555555496"/>
@@ -1706,95 +1727,95 @@
       <selection activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="13.8"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="34" style="1" customWidth="1"/>
-    <col min="2" max="6" width="10.19921875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="18.19921875" style="1" customWidth="1"/>
-    <col min="8" max="9" width="12.69921875" style="1" customWidth="1"/>
-    <col min="10" max="1025" width="10.19921875" style="1" customWidth="1"/>
+    <col min="2" max="6" width="10.1640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="18.1640625" style="1" customWidth="1"/>
+    <col min="8" max="9" width="12.6640625" style="1" customWidth="1"/>
+    <col min="10" max="1025" width="10.1640625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="20.25" customHeight="1">
-      <c r="A1" s="7"/>
-      <c r="B1" s="7" t="s">
+    <row r="1" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="6"/>
+      <c r="B1" s="6" t="s">
         <v>156</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="6" t="s">
         <v>157</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="6" t="s">
         <v>158</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E1" s="6" t="s">
         <v>159</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="F1" s="6" t="s">
         <v>160</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="G1" s="6" t="s">
         <v>161</v>
       </c>
-      <c r="H1" s="7" t="s">
+      <c r="H1" s="6" t="s">
         <v>162</v>
       </c>
-      <c r="I1" s="7" t="s">
+      <c r="I1" s="6" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="20.25" customHeight="1">
-      <c r="A2" s="8" t="s">
+    <row r="2" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="7" t="s">
         <v>164</v>
       </c>
-      <c r="B2" s="39"/>
-      <c r="C2" s="39"/>
-      <c r="D2" s="39"/>
-      <c r="E2" s="39"/>
-      <c r="F2" s="40"/>
-      <c r="G2" s="40"/>
-      <c r="H2" s="40"/>
-      <c r="I2" s="40"/>
-    </row>
-    <row r="3" spans="1:9" ht="20.25" customHeight="1">
-      <c r="A3" s="12" t="s">
+      <c r="B2" s="38"/>
+      <c r="C2" s="38"/>
+      <c r="D2" s="38"/>
+      <c r="E2" s="38"/>
+      <c r="F2" s="39"/>
+      <c r="G2" s="39"/>
+      <c r="H2" s="39"/>
+      <c r="I2" s="39"/>
+    </row>
+    <row r="3" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="11" t="s">
         <v>165</v>
       </c>
-      <c r="B3" s="39"/>
-      <c r="C3" s="39"/>
-      <c r="D3" s="39"/>
-      <c r="E3" s="39"/>
-      <c r="F3" s="40"/>
-      <c r="G3" s="40"/>
-      <c r="H3" s="40"/>
-      <c r="I3" s="40"/>
-    </row>
-    <row r="4" spans="1:9" ht="20.25" customHeight="1">
-      <c r="A4" s="12" t="s">
+      <c r="B3" s="38"/>
+      <c r="C3" s="38"/>
+      <c r="D3" s="38"/>
+      <c r="E3" s="38"/>
+      <c r="F3" s="39"/>
+      <c r="G3" s="39"/>
+      <c r="H3" s="39"/>
+      <c r="I3" s="39"/>
+    </row>
+    <row r="4" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="11" t="s">
         <v>166</v>
       </c>
-      <c r="B4" s="39"/>
-      <c r="C4" s="39"/>
-      <c r="D4" s="39"/>
-      <c r="E4" s="39"/>
-      <c r="F4" s="40"/>
-      <c r="G4" s="40"/>
-      <c r="H4" s="40"/>
-      <c r="I4" s="40"/>
-    </row>
-    <row r="5" spans="1:9" ht="20.25" customHeight="1">
-      <c r="A5" s="12" t="s">
+      <c r="B4" s="38"/>
+      <c r="C4" s="38"/>
+      <c r="D4" s="38"/>
+      <c r="E4" s="38"/>
+      <c r="F4" s="39"/>
+      <c r="G4" s="39"/>
+      <c r="H4" s="39"/>
+      <c r="I4" s="39"/>
+    </row>
+    <row r="5" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="11" t="s">
         <v>167</v>
       </c>
-      <c r="B5" s="41"/>
-      <c r="C5" s="41"/>
-      <c r="D5" s="41"/>
-      <c r="E5" s="41"/>
-      <c r="F5" s="42"/>
-      <c r="G5" s="42"/>
-      <c r="H5" s="42"/>
-      <c r="I5" s="42"/>
-    </row>
-    <row r="8" spans="1:9" ht="27.6">
+      <c r="B5" s="40"/>
+      <c r="C5" s="40"/>
+      <c r="D5" s="40"/>
+      <c r="E5" s="40"/>
+      <c r="F5" s="41"/>
+      <c r="G5" s="41"/>
+      <c r="H5" s="41"/>
+      <c r="I5" s="41"/>
+    </row>
+    <row r="8" spans="1:9" ht="45" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
         <v>168</v>
       </c>
@@ -1813,345 +1834,345 @@
       <selection activeCell="S2" sqref="S2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="13.8"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="23" width="15.69921875" style="1" customWidth="1"/>
-    <col min="24" max="1031" width="10.19921875" style="1" customWidth="1"/>
+    <col min="1" max="23" width="15.6640625" style="1" customWidth="1"/>
+    <col min="24" max="1031" width="10.1640625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" ht="49.95" customHeight="1">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:23" ht="50" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E1" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="F1" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="G1" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="H1" s="7" t="s">
+      <c r="H1" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="I1" s="7" t="s">
+      <c r="I1" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="J1" s="7" t="s">
+      <c r="J1" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="K1" s="7" t="s">
+      <c r="K1" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="L1" s="7" t="s">
+      <c r="L1" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="M1" s="7" t="s">
+      <c r="M1" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="N1" s="7" t="s">
+      <c r="N1" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="O1" s="7" t="s">
+      <c r="O1" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="P1" s="7" t="s">
+      <c r="P1" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="Q1" s="7" t="s">
+      <c r="Q1" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="R1" s="7" t="s">
+      <c r="R1" s="6" t="s">
         <v>170</v>
       </c>
-      <c r="S1" s="7" t="s">
+      <c r="S1" s="6" t="s">
         <v>171</v>
       </c>
-      <c r="T1" s="7" t="s">
+      <c r="T1" s="6" t="s">
         <v>172</v>
       </c>
-      <c r="U1" s="7" t="s">
+      <c r="U1" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="V1" s="7" t="s">
+      <c r="V1" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="W1" s="7" t="s">
+      <c r="W1" s="6" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:23" ht="20.25" customHeight="1">
-      <c r="A2" s="8" t="s">
+    <row r="2" spans="1:23" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="B2" s="9"/>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="9"/>
-      <c r="H2" s="9"/>
-      <c r="I2" s="9"/>
-      <c r="J2" s="9"/>
-      <c r="K2" s="9"/>
-      <c r="L2" s="9"/>
-      <c r="M2" s="9"/>
-      <c r="N2" s="9"/>
-      <c r="O2" s="10"/>
-      <c r="P2" s="10"/>
-      <c r="Q2" s="10"/>
-      <c r="R2" s="10"/>
-      <c r="S2" s="10"/>
-      <c r="T2" s="10"/>
-      <c r="U2" s="11" t="e">
+      <c r="B2" s="8"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="8"/>
+      <c r="I2" s="8"/>
+      <c r="J2" s="8"/>
+      <c r="K2" s="8"/>
+      <c r="L2" s="8"/>
+      <c r="M2" s="8"/>
+      <c r="N2" s="8"/>
+      <c r="O2" s="9"/>
+      <c r="P2" s="9"/>
+      <c r="Q2" s="9"/>
+      <c r="R2" s="9"/>
+      <c r="S2" s="9"/>
+      <c r="T2" s="9"/>
+      <c r="U2" s="10" t="e">
         <f>B2/C2</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="V2" s="11" t="e">
+      <c r="V2" s="10" t="e">
         <f>B2/M2</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="W2" s="11" t="e">
+      <c r="W2" s="10" t="e">
         <f>K2^2/M2</f>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="3" spans="1:23" ht="20.25" customHeight="1">
-      <c r="A3" s="12" t="s">
+    <row r="3" spans="1:23" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="B3" s="9"/>
-      <c r="C3" s="9"/>
-      <c r="D3" s="9"/>
-      <c r="E3" s="9"/>
-      <c r="F3" s="9"/>
-      <c r="G3" s="9"/>
-      <c r="H3" s="9"/>
-      <c r="I3" s="9"/>
-      <c r="J3" s="9"/>
-      <c r="K3" s="9"/>
-      <c r="L3" s="9"/>
-      <c r="M3" s="9"/>
-      <c r="N3" s="9"/>
-      <c r="O3" s="10"/>
-      <c r="P3" s="10"/>
-      <c r="Q3" s="10"/>
-      <c r="R3" s="10"/>
-      <c r="S3" s="10"/>
-      <c r="T3" s="10"/>
-      <c r="U3" s="11" t="e">
+      <c r="B3" s="8"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="8"/>
+      <c r="I3" s="8"/>
+      <c r="J3" s="8"/>
+      <c r="K3" s="8"/>
+      <c r="L3" s="8"/>
+      <c r="M3" s="8"/>
+      <c r="N3" s="8"/>
+      <c r="O3" s="9"/>
+      <c r="P3" s="9"/>
+      <c r="Q3" s="9"/>
+      <c r="R3" s="9"/>
+      <c r="S3" s="9"/>
+      <c r="T3" s="9"/>
+      <c r="U3" s="10" t="e">
         <f>B3/C3</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="V3" s="11" t="e">
+      <c r="V3" s="10" t="e">
         <f>B3/M3</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="W3" s="11" t="e">
+      <c r="W3" s="10" t="e">
         <f>K3^2/M3</f>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="4" spans="1:23" ht="20.25" customHeight="1">
-      <c r="A4" s="12" t="s">
+    <row r="4" spans="1:23" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="B4" s="9"/>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="9"/>
-      <c r="G4" s="9"/>
-      <c r="H4" s="9"/>
-      <c r="I4" s="9"/>
-      <c r="J4" s="9"/>
-      <c r="K4" s="9"/>
-      <c r="L4" s="9"/>
-      <c r="M4" s="9"/>
-      <c r="N4" s="9"/>
-      <c r="O4" s="10"/>
-      <c r="P4" s="10"/>
-      <c r="Q4" s="10"/>
-      <c r="R4" s="10"/>
-      <c r="S4" s="10"/>
-      <c r="T4" s="10"/>
-      <c r="U4" s="11" t="e">
+      <c r="B4" s="8"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="8"/>
+      <c r="I4" s="8"/>
+      <c r="J4" s="8"/>
+      <c r="K4" s="8"/>
+      <c r="L4" s="8"/>
+      <c r="M4" s="8"/>
+      <c r="N4" s="8"/>
+      <c r="O4" s="9"/>
+      <c r="P4" s="9"/>
+      <c r="Q4" s="9"/>
+      <c r="R4" s="9"/>
+      <c r="S4" s="9"/>
+      <c r="T4" s="9"/>
+      <c r="U4" s="10" t="e">
         <f>B4/C4</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="V4" s="11" t="e">
+      <c r="V4" s="10" t="e">
         <f>B4/M4</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="W4" s="11" t="e">
+      <c r="W4" s="10" t="e">
         <f>K4^2/M4</f>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="5" spans="1:23" ht="20.25" customHeight="1">
-      <c r="A5" s="12" t="s">
+    <row r="5" spans="1:23" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="B5" s="9"/>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="9"/>
-      <c r="G5" s="9"/>
-      <c r="H5" s="9"/>
-      <c r="I5" s="9"/>
-      <c r="J5" s="9"/>
-      <c r="K5" s="9"/>
-      <c r="L5" s="9"/>
-      <c r="M5" s="9"/>
-      <c r="N5" s="9"/>
-      <c r="O5" s="10"/>
-      <c r="P5" s="10"/>
-      <c r="Q5" s="10"/>
-      <c r="R5" s="10"/>
-      <c r="S5" s="10"/>
-      <c r="T5" s="10"/>
-      <c r="U5" s="11" t="e">
+      <c r="B5" s="8"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="8"/>
+      <c r="I5" s="8"/>
+      <c r="J5" s="8"/>
+      <c r="K5" s="8"/>
+      <c r="L5" s="8"/>
+      <c r="M5" s="8"/>
+      <c r="N5" s="8"/>
+      <c r="O5" s="9"/>
+      <c r="P5" s="9"/>
+      <c r="Q5" s="9"/>
+      <c r="R5" s="9"/>
+      <c r="S5" s="9"/>
+      <c r="T5" s="9"/>
+      <c r="U5" s="10" t="e">
         <f>B5/C5</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="V5" s="11" t="e">
+      <c r="V5" s="10" t="e">
         <f>B5/M5</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="W5" s="11" t="e">
+      <c r="W5" s="10" t="e">
         <f>K5^2/M5</f>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="6" spans="1:23" ht="20.25" customHeight="1">
-      <c r="A6" s="12" t="s">
+    <row r="6" spans="1:23" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="B6" s="9"/>
-      <c r="C6" s="9"/>
-      <c r="D6" s="9"/>
-      <c r="E6" s="9"/>
-      <c r="F6" s="9"/>
-      <c r="G6" s="9"/>
-      <c r="H6" s="9"/>
-      <c r="I6" s="9"/>
-      <c r="J6" s="9"/>
-      <c r="K6" s="9"/>
-      <c r="L6" s="9"/>
-      <c r="M6" s="9"/>
-      <c r="N6" s="9"/>
-      <c r="O6" s="10"/>
-      <c r="P6" s="10"/>
-      <c r="Q6" s="10"/>
-      <c r="R6" s="10"/>
-      <c r="S6" s="10"/>
-      <c r="T6" s="10"/>
-      <c r="U6" s="11" t="e">
+      <c r="B6" s="8"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="8"/>
+      <c r="I6" s="8"/>
+      <c r="J6" s="8"/>
+      <c r="K6" s="8"/>
+      <c r="L6" s="8"/>
+      <c r="M6" s="8"/>
+      <c r="N6" s="8"/>
+      <c r="O6" s="9"/>
+      <c r="P6" s="9"/>
+      <c r="Q6" s="9"/>
+      <c r="R6" s="9"/>
+      <c r="S6" s="9"/>
+      <c r="T6" s="9"/>
+      <c r="U6" s="10" t="e">
         <f>B6/C6</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="V6" s="11" t="e">
+      <c r="V6" s="10" t="e">
         <f>B6/M6</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="W6" s="11" t="e">
+      <c r="W6" s="10" t="e">
         <f>K6^2/M6</f>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="7" spans="1:23" ht="20.25" customHeight="1">
-      <c r="A7" s="12" t="s">
+    <row r="7" spans="1:23" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="B7" s="13"/>
-      <c r="C7" s="13"/>
-      <c r="D7" s="13"/>
-      <c r="E7" s="13"/>
-      <c r="F7" s="13"/>
-      <c r="G7" s="13"/>
-      <c r="H7" s="13"/>
-      <c r="I7" s="13"/>
-      <c r="J7" s="13"/>
-      <c r="K7" s="13"/>
-      <c r="L7" s="13"/>
-      <c r="M7" s="13"/>
-      <c r="N7" s="13"/>
-      <c r="O7" s="14"/>
-      <c r="P7" s="14"/>
-      <c r="Q7" s="14"/>
-      <c r="R7" s="14"/>
-      <c r="S7" s="14"/>
-      <c r="T7" s="14"/>
-      <c r="U7" s="14"/>
-      <c r="V7" s="14"/>
-      <c r="W7" s="14"/>
-    </row>
-    <row r="9" spans="1:23" ht="27.6">
-      <c r="A9" s="7" t="s">
+      <c r="B7" s="12"/>
+      <c r="C7" s="12"/>
+      <c r="D7" s="12"/>
+      <c r="E7" s="12"/>
+      <c r="F7" s="12"/>
+      <c r="G7" s="12"/>
+      <c r="H7" s="12"/>
+      <c r="I7" s="12"/>
+      <c r="J7" s="12"/>
+      <c r="K7" s="12"/>
+      <c r="L7" s="12"/>
+      <c r="M7" s="12"/>
+      <c r="N7" s="12"/>
+      <c r="O7" s="13"/>
+      <c r="P7" s="13"/>
+      <c r="Q7" s="13"/>
+      <c r="R7" s="13"/>
+      <c r="S7" s="13"/>
+      <c r="T7" s="13"/>
+      <c r="U7" s="13"/>
+      <c r="V7" s="13"/>
+      <c r="W7" s="13"/>
+    </row>
+    <row r="9" spans="1:23" ht="30" x14ac:dyDescent="0.15">
+      <c r="A9" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="B9" s="15" t="s">
+      <c r="B9" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="C9" s="15" t="s">
+      <c r="C9" s="14" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="10" spans="1:23" ht="30" customHeight="1">
-      <c r="A10" s="12" t="s">
+    <row r="10" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="B10" s="16"/>
-      <c r="C10" s="16"/>
-    </row>
-    <row r="11" spans="1:23" ht="48.75" customHeight="1">
-      <c r="A11" s="8" t="s">
+      <c r="B10" s="15"/>
+      <c r="C10" s="15"/>
+    </row>
+    <row r="11" spans="1:23" ht="48.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="B11" s="17">
+      <c r="B11" s="16">
         <f>224.80894*B10</f>
         <v>0</v>
       </c>
-      <c r="C11" s="17"/>
-    </row>
-    <row r="13" spans="1:23" ht="27.6">
-      <c r="A13" s="7" t="s">
+      <c r="C11" s="16"/>
+    </row>
+    <row r="13" spans="1:23" ht="30" x14ac:dyDescent="0.15">
+      <c r="A13" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="B13" s="15" t="s">
+      <c r="B13" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="C13" s="15" t="s">
+      <c r="C13" s="14" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="14" spans="1:23" ht="37.5" customHeight="1">
-      <c r="A14" s="12" t="s">
+    <row r="14" spans="1:23" ht="37.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="B14" s="16"/>
-      <c r="C14" s="16"/>
-    </row>
-    <row r="15" spans="1:23" ht="45.75" customHeight="1">
-      <c r="A15" s="8" t="s">
+      <c r="B14" s="15"/>
+      <c r="C14" s="15"/>
+    </row>
+    <row r="15" spans="1:23" ht="45.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="B15" s="17">
+      <c r="B15" s="16">
         <f>224.80894*B14</f>
         <v>0</v>
       </c>
-      <c r="C15" s="17"/>
+      <c r="C15" s="16"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.51180555555555496" footer="0.51180555555555496"/>
@@ -2167,142 +2188,142 @@
       <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="13.8"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="17" style="1" customWidth="1"/>
-    <col min="2" max="7" width="20.19921875" style="1" customWidth="1"/>
-    <col min="8" max="1026" width="10.19921875" style="1" customWidth="1"/>
+    <col min="2" max="7" width="20.1640625" style="1" customWidth="1"/>
+    <col min="8" max="1026" width="10.1640625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="27.6">
-      <c r="A1" s="44" t="s">
+    <row r="1" spans="1:7" ht="30" x14ac:dyDescent="0.15">
+      <c r="A1" s="43" t="s">
         <v>169</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E1" s="6" t="s">
         <v>174</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="F1" s="6" t="s">
         <v>175</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="G1" s="6" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="20.25" customHeight="1">
-      <c r="A2" s="12" t="s">
+    <row r="2" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="B2" s="18"/>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="18"/>
-      <c r="G2" s="19"/>
-    </row>
-    <row r="3" spans="1:7" ht="20.25" customHeight="1">
-      <c r="A3" s="8" t="s">
+      <c r="B2" s="17"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="17"/>
+      <c r="G2" s="18"/>
+    </row>
+    <row r="3" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="B3" s="20">
+      <c r="B3" s="19">
         <f>2.20462*B2</f>
         <v>0</v>
       </c>
-      <c r="C3" s="20">
+      <c r="C3" s="19">
         <f>2.20462*C2</f>
         <v>0</v>
       </c>
-      <c r="D3" s="20">
+      <c r="D3" s="19">
         <f>2.20462*D2</f>
         <v>0</v>
       </c>
-      <c r="E3" s="20"/>
-      <c r="F3" s="20">
+      <c r="E3" s="19"/>
+      <c r="F3" s="19">
         <f>2.20462*F2</f>
         <v>0</v>
       </c>
-      <c r="G3" s="20">
+      <c r="G3" s="19">
         <f>2.20462*G2</f>
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="27.6">
-      <c r="A6" s="7" t="s">
+    <row r="6" spans="1:7" ht="30" x14ac:dyDescent="0.15">
+      <c r="A6" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="C6" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="D6" s="7" t="s">
+      <c r="D6" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="E6" s="7" t="s">
+      <c r="E6" s="6" t="s">
         <v>174</v>
       </c>
-      <c r="F6" s="7" t="s">
+      <c r="F6" s="6" t="s">
         <v>175</v>
       </c>
-      <c r="G6" s="7" t="s">
+      <c r="G6" s="6" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
-      <c r="A7" s="12" t="s">
+    <row r="7" spans="1:7" ht="15" x14ac:dyDescent="0.15">
+      <c r="A7" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="B7" s="18"/>
-      <c r="C7" s="18"/>
-      <c r="D7" s="18"/>
-      <c r="E7" s="18"/>
-      <c r="F7" s="18"/>
-      <c r="G7" s="19"/>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8" s="8" t="s">
+      <c r="B7" s="17"/>
+      <c r="C7" s="17"/>
+      <c r="D7" s="17"/>
+      <c r="E7" s="17"/>
+      <c r="F7" s="17"/>
+      <c r="G7" s="18"/>
+    </row>
+    <row r="8" spans="1:7" ht="15" x14ac:dyDescent="0.15">
+      <c r="A8" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="B8" s="20">
+      <c r="B8" s="19">
         <f>2.20462*B7</f>
         <v>0</v>
       </c>
-      <c r="C8" s="20">
+      <c r="C8" s="19">
         <f>2.20462*C7</f>
         <v>0</v>
       </c>
-      <c r="D8" s="20">
+      <c r="D8" s="19">
         <f>2.20462*D7</f>
         <v>0</v>
       </c>
-      <c r="E8" s="20"/>
-      <c r="F8" s="20">
+      <c r="E8" s="19"/>
+      <c r="F8" s="19">
         <f>2.20462*F7</f>
         <v>0</v>
       </c>
-      <c r="G8" s="20">
+      <c r="G8" s="19">
         <f>2.20462*G7</f>
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="24" customHeight="1">
-      <c r="A14" s="56" t="s">
+    <row r="14" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="52" t="s">
         <v>173</v>
       </c>
-      <c r="B14" s="49"/>
-      <c r="C14" s="49"/>
-      <c r="D14" s="49"/>
-    </row>
-    <row r="15" spans="1:7" ht="21.6" customHeight="1"/>
+      <c r="B14" s="53"/>
+      <c r="C14" s="53"/>
+      <c r="D14" s="53"/>
+    </row>
+    <row r="15" spans="1:7" ht="21.5" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A14:D14"/>
@@ -2320,187 +2341,187 @@
       <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="13.8"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="22" style="1" customWidth="1"/>
-    <col min="2" max="2" width="21.69921875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="22.69921875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="21.6640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="22.6640625" style="1" customWidth="1"/>
     <col min="4" max="4" width="19.5" style="1" customWidth="1"/>
-    <col min="5" max="5" width="20.69921875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="20.6640625" style="1" customWidth="1"/>
     <col min="6" max="6" width="30.5" style="1" customWidth="1"/>
-    <col min="7" max="1025" width="10.19921875" style="1" customWidth="1"/>
+    <col min="7" max="1025" width="10.1640625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="27.6">
-      <c r="A1" s="7"/>
-      <c r="B1" s="7" t="s">
+    <row r="1" spans="1:10" ht="30" x14ac:dyDescent="0.15">
+      <c r="A1" s="6"/>
+      <c r="B1" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7" t="s">
+      <c r="C1" s="6"/>
+      <c r="D1" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7" t="s">
+      <c r="E1" s="6"/>
+      <c r="F1" s="6" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="20.25" customHeight="1">
-      <c r="A2" s="8" t="s">
+    <row r="2" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="B2" s="21"/>
-      <c r="C2" s="7" t="s">
+      <c r="B2" s="20"/>
+      <c r="C2" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="D2" s="22"/>
-      <c r="E2" s="7" t="s">
+      <c r="D2" s="21"/>
+      <c r="E2" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="F2" s="22"/>
-    </row>
-    <row r="3" spans="1:10" ht="42.6" customHeight="1">
-      <c r="A3" s="8" t="s">
+      <c r="F2" s="21"/>
+    </row>
+    <row r="3" spans="1:10" ht="42.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="B3" s="21">
+      <c r="B3" s="20">
         <f>D12*F4 + F3</f>
         <v>0</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="D3" s="17"/>
-      <c r="E3" s="7" t="s">
+      <c r="D3" s="16"/>
+      <c r="E3" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="F3" s="17"/>
-    </row>
-    <row r="4" spans="1:10" ht="39" customHeight="1">
-      <c r="A4" s="8" t="s">
+      <c r="F3" s="16"/>
+    </row>
+    <row r="4" spans="1:10" ht="39" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="B4" s="21"/>
-      <c r="C4" s="7" t="s">
+      <c r="B4" s="20"/>
+      <c r="C4" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="D4" s="21"/>
-      <c r="E4" s="43" t="s">
+      <c r="D4" s="20"/>
+      <c r="E4" s="42" t="s">
         <v>54</v>
       </c>
-      <c r="F4" s="21"/>
-    </row>
-    <row r="5" spans="1:10" ht="33" customHeight="1">
-      <c r="A5" s="8" t="s">
+      <c r="F4" s="20"/>
+    </row>
+    <row r="5" spans="1:10" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="B5" s="21"/>
-      <c r="C5" s="43" t="s">
+      <c r="B5" s="20"/>
+      <c r="C5" s="42" t="s">
         <v>56</v>
       </c>
-      <c r="D5" s="21"/>
-      <c r="E5" s="43" t="s">
+      <c r="D5" s="20"/>
+      <c r="E5" s="42" t="s">
         <v>57</v>
       </c>
-      <c r="F5" s="21"/>
-    </row>
-    <row r="6" spans="1:10" ht="34.200000000000003" customHeight="1">
-      <c r="A6" s="8" t="s">
+      <c r="F5" s="20"/>
+    </row>
+    <row r="6" spans="1:10" ht="34.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="B6" s="21"/>
-      <c r="C6" s="43" t="s">
+      <c r="B6" s="20"/>
+      <c r="C6" s="42" t="s">
         <v>59</v>
       </c>
-      <c r="D6" s="21"/>
-      <c r="E6" s="43" t="s">
+      <c r="D6" s="20"/>
+      <c r="E6" s="42" t="s">
         <v>60</v>
       </c>
-      <c r="F6" s="21"/>
-      <c r="G6" s="50" t="s">
+      <c r="F6" s="20"/>
+      <c r="G6" s="54" t="s">
         <v>61</v>
       </c>
-      <c r="H6" s="51"/>
-      <c r="I6" s="51"/>
-      <c r="J6" s="51"/>
-    </row>
-    <row r="7" spans="1:10" ht="27.6">
-      <c r="A7" s="8" t="s">
+      <c r="H6" s="55"/>
+      <c r="I6" s="55"/>
+      <c r="J6" s="55"/>
+    </row>
+    <row r="7" spans="1:10" ht="30" x14ac:dyDescent="0.15">
+      <c r="A7" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="B7" s="21"/>
-      <c r="C7" s="7" t="s">
+      <c r="B7" s="20"/>
+      <c r="C7" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="D7" s="21"/>
-      <c r="E7" s="7" t="s">
+      <c r="D7" s="20"/>
+      <c r="E7" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="F7" s="21"/>
-    </row>
-    <row r="8" spans="1:10" ht="20.25" customHeight="1">
-      <c r="A8" s="8" t="s">
+      <c r="F7" s="20"/>
+    </row>
+    <row r="8" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="B8" s="21"/>
-      <c r="C8" s="7" t="s">
+      <c r="B8" s="20"/>
+      <c r="C8" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="D8" s="21"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="21"/>
-    </row>
-    <row r="9" spans="1:10" ht="20.25" customHeight="1">
-      <c r="A9" s="8" t="s">
+      <c r="D8" s="20"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="20"/>
+    </row>
+    <row r="9" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="B9" s="21"/>
-      <c r="C9" s="7" t="s">
+      <c r="B9" s="20"/>
+      <c r="C9" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="D9" s="21"/>
-      <c r="E9" s="7"/>
-      <c r="F9" s="21"/>
-    </row>
-    <row r="10" spans="1:10" ht="20.25" customHeight="1">
-      <c r="A10" s="8"/>
-      <c r="B10" s="21"/>
-      <c r="C10" s="23" t="s">
+      <c r="D9" s="20"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="20"/>
+    </row>
+    <row r="10" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="7"/>
+      <c r="B10" s="20"/>
+      <c r="C10" s="22" t="s">
         <v>69</v>
       </c>
-      <c r="D10" s="21"/>
-      <c r="E10" s="23"/>
-      <c r="F10" s="21"/>
-    </row>
-    <row r="11" spans="1:10" ht="20.25" customHeight="1">
-      <c r="A11" s="8" t="s">
+      <c r="D10" s="20"/>
+      <c r="E10" s="22"/>
+      <c r="F10" s="20"/>
+    </row>
+    <row r="11" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="B11" s="21">
+      <c r="B11" s="20">
         <f>SUM(B2:B10)</f>
         <v>0</v>
       </c>
-      <c r="C11" s="7" t="s">
+      <c r="C11" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="D11" s="21"/>
-      <c r="E11" s="7"/>
-      <c r="F11" s="21"/>
-    </row>
-    <row r="12" spans="1:10" ht="20.25" customHeight="1">
-      <c r="A12" s="8" t="s">
+      <c r="D11" s="20"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="20"/>
+    </row>
+    <row r="12" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="B12" s="17" t="e">
+      <c r="B12" s="16" t="e">
         <f>B11/D10/D11</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="C12" s="7" t="s">
+      <c r="C12" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="D12" s="21"/>
-      <c r="E12" s="7"/>
-      <c r="F12" s="21"/>
+      <c r="D12" s="20"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2519,38 +2540,38 @@
       <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="13.8"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="6" width="22.19921875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="23.19921875" style="1" customWidth="1"/>
-    <col min="8" max="8" width="24.69921875" style="1" customWidth="1"/>
-    <col min="9" max="1025" width="10.19921875" style="1" customWidth="1"/>
+    <col min="1" max="6" width="22.1640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="23.1640625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="24.6640625" style="1" customWidth="1"/>
+    <col min="9" max="1025" width="10.1640625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1025" ht="30" customHeight="1">
-      <c r="A1" s="51" t="s">
+    <row r="1" spans="1:1025" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="55" t="s">
         <v>73</v>
       </c>
-      <c r="B1" s="51"/>
-    </row>
-    <row r="3" spans="1:1025" ht="27.6">
-      <c r="A3" s="7"/>
-      <c r="B3" s="7" t="s">
+      <c r="B1" s="55"/>
+    </row>
+    <row r="3" spans="1:1025" ht="30" x14ac:dyDescent="0.15">
+      <c r="A3" s="6"/>
+      <c r="B3" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="D3" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="E3" s="7" t="s">
+      <c r="E3" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="F3" s="7" t="s">
+      <c r="F3" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="G3" s="7" t="s">
+      <c r="G3" s="6" t="s">
         <v>79</v>
       </c>
       <c r="I3"/>
@@ -3571,16 +3592,16 @@
       <c r="AMJ3"/>
       <c r="AMK3"/>
     </row>
-    <row r="4" spans="1:1025" ht="22.2" customHeight="1">
-      <c r="A4" s="12" t="s">
+    <row r="4" spans="1:1025" ht="22.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="11" t="s">
         <v>80</v>
       </c>
-      <c r="B4" s="18"/>
-      <c r="C4" s="18"/>
-      <c r="D4" s="18"/>
-      <c r="E4" s="24"/>
-      <c r="F4" s="24"/>
-      <c r="G4" s="25"/>
+      <c r="B4" s="17"/>
+      <c r="C4" s="17"/>
+      <c r="D4" s="17"/>
+      <c r="E4" s="23"/>
+      <c r="F4" s="23"/>
+      <c r="G4" s="24"/>
       <c r="I4"/>
       <c r="J4"/>
       <c r="K4"/>
@@ -4599,16 +4620,16 @@
       <c r="AMJ4"/>
       <c r="AMK4"/>
     </row>
-    <row r="5" spans="1:1025" ht="27.6">
-      <c r="A5" s="8" t="s">
+    <row r="5" spans="1:1025" ht="30" x14ac:dyDescent="0.15">
+      <c r="A5" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="B5" s="20"/>
-      <c r="C5" s="20"/>
-      <c r="D5" s="20"/>
-      <c r="E5" s="26"/>
-      <c r="F5" s="26"/>
-      <c r="G5" s="27"/>
+      <c r="B5" s="19"/>
+      <c r="C5" s="19"/>
+      <c r="D5" s="19"/>
+      <c r="E5" s="25"/>
+      <c r="F5" s="25"/>
+      <c r="G5" s="26"/>
       <c r="I5"/>
       <c r="J5"/>
       <c r="K5"/>
@@ -5627,118 +5648,118 @@
       <c r="AMJ5"/>
       <c r="AMK5"/>
     </row>
-    <row r="6" spans="1:1025" ht="13.95" customHeight="1">
-      <c r="A6" s="51" t="s">
+    <row r="6" spans="1:1025" ht="14" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="55" t="s">
         <v>82</v>
       </c>
-      <c r="B6" s="51"/>
-    </row>
-    <row r="7" spans="1:1025">
-      <c r="A7" s="51"/>
-      <c r="B7" s="51"/>
-    </row>
-    <row r="8" spans="1:1025" ht="20.25" customHeight="1">
-      <c r="B8" s="52" t="s">
+      <c r="B6" s="55"/>
+    </row>
+    <row r="7" spans="1:1025" x14ac:dyDescent="0.15">
+      <c r="A7" s="55"/>
+      <c r="B7" s="55"/>
+    </row>
+    <row r="8" spans="1:1025" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B8" s="56" t="s">
         <v>83</v>
       </c>
-      <c r="C8" s="52"/>
-      <c r="D8" s="52" t="s">
+      <c r="C8" s="56"/>
+      <c r="D8" s="56" t="s">
         <v>84</v>
       </c>
-      <c r="E8" s="52"/>
-      <c r="F8" s="52"/>
-      <c r="G8" s="46"/>
-    </row>
-    <row r="9" spans="1:1025" ht="20.25" customHeight="1">
-      <c r="A9" s="7"/>
-      <c r="B9" s="7" t="s">
+      <c r="E8" s="56"/>
+      <c r="F8" s="56"/>
+      <c r="G8" s="45"/>
+    </row>
+    <row r="9" spans="1:1025" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="6"/>
+      <c r="B9" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="C9" s="7" t="s">
+      <c r="C9" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="D9" s="7" t="s">
+      <c r="D9" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="E9" s="7" t="s">
+      <c r="E9" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="F9" s="7" t="s">
+      <c r="F9" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="G9" s="47"/>
-    </row>
-    <row r="10" spans="1:1025" ht="20.25" customHeight="1">
-      <c r="A10" s="12" t="s">
+      <c r="G9" s="46"/>
+    </row>
+    <row r="10" spans="1:1025" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="11" t="s">
         <v>88</v>
       </c>
-      <c r="B10" s="18"/>
-      <c r="C10" s="18"/>
-      <c r="D10" s="18"/>
-      <c r="E10" s="18"/>
-      <c r="F10" s="18"/>
-      <c r="G10" s="48"/>
-    </row>
-    <row r="11" spans="1:1025" ht="20.25" customHeight="1">
-      <c r="A11" s="12" t="s">
+      <c r="B10" s="17"/>
+      <c r="C10" s="17"/>
+      <c r="D10" s="17"/>
+      <c r="E10" s="17"/>
+      <c r="F10" s="17"/>
+      <c r="G10" s="47"/>
+    </row>
+    <row r="11" spans="1:1025" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="11" t="s">
         <v>89</v>
       </c>
-      <c r="B11" s="18"/>
-      <c r="C11" s="18"/>
-      <c r="D11" s="18"/>
-      <c r="E11" s="18"/>
-      <c r="F11" s="18"/>
-      <c r="G11" s="48"/>
-    </row>
-    <row r="12" spans="1:1025" ht="20.25" customHeight="1">
-      <c r="A12" s="12" t="s">
+      <c r="B11" s="17"/>
+      <c r="C11" s="17"/>
+      <c r="D11" s="17"/>
+      <c r="E11" s="17"/>
+      <c r="F11" s="17"/>
+      <c r="G11" s="47"/>
+    </row>
+    <row r="12" spans="1:1025" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="B12" s="18"/>
-      <c r="C12" s="18"/>
-      <c r="D12" s="18"/>
-      <c r="E12" s="18"/>
-      <c r="F12" s="18"/>
-      <c r="G12" s="48"/>
-    </row>
-    <row r="14" spans="1:1025" ht="31.95" customHeight="1">
-      <c r="A14" s="7"/>
-      <c r="B14" s="7" t="s">
+      <c r="B12" s="17"/>
+      <c r="C12" s="17"/>
+      <c r="D12" s="17"/>
+      <c r="E12" s="17"/>
+      <c r="F12" s="17"/>
+      <c r="G12" s="47"/>
+    </row>
+    <row r="14" spans="1:1025" ht="32" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="6"/>
+      <c r="B14" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="C14" s="7" t="s">
+      <c r="C14" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="D14" s="7" t="s">
+      <c r="D14" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="E14" s="7" t="s">
+      <c r="E14" s="6" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="15" spans="1:1025" ht="31.2" customHeight="1">
-      <c r="A15" s="12" t="s">
+    <row r="15" spans="1:1025" ht="31.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="11" t="s">
         <v>95</v>
       </c>
-      <c r="B15" s="18"/>
-      <c r="C15" s="18"/>
-      <c r="D15" s="24"/>
-      <c r="E15" s="25"/>
-    </row>
-    <row r="16" spans="1:1025" ht="27.6">
-      <c r="A16" s="8" t="s">
+      <c r="B15" s="17"/>
+      <c r="C15" s="17"/>
+      <c r="D15" s="23"/>
+      <c r="E15" s="24"/>
+    </row>
+    <row r="16" spans="1:1025" ht="30" x14ac:dyDescent="0.15">
+      <c r="A16" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="B16" s="20"/>
-      <c r="C16" s="20"/>
-      <c r="D16" s="26"/>
-      <c r="E16" s="27"/>
-    </row>
-    <row r="18" spans="1:2" ht="96.6" customHeight="1">
-      <c r="A18" s="51" t="s">
+      <c r="B16" s="19"/>
+      <c r="C16" s="19"/>
+      <c r="D16" s="25"/>
+      <c r="E16" s="26"/>
+    </row>
+    <row r="18" spans="1:2" ht="96.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="55" t="s">
         <v>97</v>
       </c>
-      <c r="B18" s="51"/>
+      <c r="B18" s="55"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -5758,30 +5779,30 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:AMM7"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="13.8"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="30.19921875" style="1" customWidth="1"/>
-    <col min="2" max="8" width="21.69921875" style="1" customWidth="1"/>
-    <col min="9" max="1027" width="10.19921875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="30.1640625" style="1" customWidth="1"/>
+    <col min="2" max="8" width="21.6640625" style="1" customWidth="1"/>
+    <col min="9" max="1027" width="10.1640625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="24" customHeight="1">
-      <c r="A1" s="53"/>
+    <row r="1" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="57"/>
       <c r="B1" s="58" t="s">
         <v>98</v>
       </c>
       <c r="C1" s="58"/>
-      <c r="D1" s="59" t="s">
+      <c r="D1" s="49" t="s">
         <v>99</v>
       </c>
-      <c r="E1" s="59" t="s">
+      <c r="E1" s="49" t="s">
         <v>99</v>
       </c>
-      <c r="F1" s="59" t="s">
+      <c r="F1" s="49" t="s">
         <v>100</v>
       </c>
       <c r="G1" s="58" t="s">
@@ -5789,89 +5810,89 @@
       </c>
       <c r="H1" s="58"/>
     </row>
-    <row r="2" spans="1:8" ht="24.6" customHeight="1">
-      <c r="A2" s="53"/>
-      <c r="B2" s="57" t="s">
+    <row r="2" spans="1:8" ht="24.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="57"/>
+      <c r="B2" s="48" t="s">
         <v>176</v>
       </c>
-      <c r="C2" s="57" t="s">
+      <c r="C2" s="48" t="s">
         <v>178</v>
       </c>
-      <c r="D2" s="57" t="s">
+      <c r="D2" s="48" t="s">
         <v>102</v>
       </c>
-      <c r="E2" s="57" t="s">
+      <c r="E2" s="48" t="s">
         <v>103</v>
       </c>
-      <c r="F2" s="57" t="s">
+      <c r="F2" s="48" t="s">
         <v>104</v>
       </c>
-      <c r="G2" s="57" t="s">
+      <c r="G2" s="48" t="s">
         <v>179</v>
       </c>
-      <c r="H2" s="57" t="s">
+      <c r="H2" s="48" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A3" s="60" t="s">
+    <row r="3" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="50" t="s">
         <v>105</v>
       </c>
-      <c r="B3" s="24"/>
-      <c r="C3" s="24"/>
-      <c r="D3" s="24"/>
-      <c r="E3" s="24"/>
-      <c r="F3" s="24"/>
-      <c r="G3" s="25"/>
-      <c r="H3" s="25"/>
-    </row>
-    <row r="4" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A4" s="60" t="s">
+      <c r="B3" s="23"/>
+      <c r="C3" s="23"/>
+      <c r="D3" s="23"/>
+      <c r="E3" s="23"/>
+      <c r="F3" s="23"/>
+      <c r="G3" s="24"/>
+      <c r="H3" s="24"/>
+    </row>
+    <row r="4" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="50" t="s">
         <v>106</v>
       </c>
-      <c r="B4" s="28"/>
-      <c r="C4" s="28"/>
-      <c r="D4" s="28"/>
-      <c r="E4" s="28"/>
-      <c r="F4" s="28"/>
-      <c r="G4" s="29"/>
-      <c r="H4" s="29"/>
-    </row>
-    <row r="5" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A5" s="60" t="s">
+      <c r="B4" s="27"/>
+      <c r="C4" s="27"/>
+      <c r="D4" s="27"/>
+      <c r="E4" s="27"/>
+      <c r="F4" s="27"/>
+      <c r="G4" s="28"/>
+      <c r="H4" s="28"/>
+    </row>
+    <row r="5" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="50" t="s">
         <v>107</v>
       </c>
-      <c r="B5" s="30"/>
-      <c r="C5" s="30"/>
-      <c r="D5" s="30"/>
-      <c r="E5" s="30"/>
-      <c r="F5" s="30"/>
-      <c r="G5" s="31"/>
-      <c r="H5" s="31"/>
-    </row>
-    <row r="6" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A6" s="61" t="s">
+      <c r="B5" s="29"/>
+      <c r="C5" s="29"/>
+      <c r="D5" s="29"/>
+      <c r="E5" s="29"/>
+      <c r="F5" s="29"/>
+      <c r="G5" s="30"/>
+      <c r="H5" s="30"/>
+    </row>
+    <row r="6" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="51" t="s">
         <v>108</v>
       </c>
-      <c r="B6" s="32"/>
-      <c r="C6" s="32"/>
-      <c r="D6" s="32"/>
-      <c r="E6" s="32"/>
-      <c r="F6" s="32"/>
-      <c r="G6" s="33"/>
-      <c r="H6" s="33"/>
-    </row>
-    <row r="7" spans="1:8" ht="22.8" customHeight="1">
-      <c r="A7" s="61" t="s">
+      <c r="B6" s="31"/>
+      <c r="C6" s="31"/>
+      <c r="D6" s="31"/>
+      <c r="E6" s="31"/>
+      <c r="F6" s="31"/>
+      <c r="G6" s="32"/>
+      <c r="H6" s="32"/>
+    </row>
+    <row r="7" spans="1:8" ht="22.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="51" t="s">
         <v>177</v>
       </c>
-      <c r="B7" s="32"/>
-      <c r="C7" s="32"/>
-      <c r="D7" s="32"/>
-      <c r="E7" s="32"/>
-      <c r="F7" s="32"/>
-      <c r="G7" s="33"/>
-      <c r="H7" s="33"/>
+      <c r="B7" s="31"/>
+      <c r="C7" s="31"/>
+      <c r="D7" s="31"/>
+      <c r="E7" s="31"/>
+      <c r="F7" s="31"/>
+      <c r="G7" s="32"/>
+      <c r="H7" s="32"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -5892,67 +5913,67 @@
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="13.8"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="4" width="21.19921875" style="1" customWidth="1"/>
-    <col min="5" max="1025" width="10.19921875" style="1" customWidth="1"/>
+    <col min="1" max="4" width="21.1640625" style="1" customWidth="1"/>
+    <col min="5" max="1025" width="10.1640625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="34.5" customHeight="1">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:3" ht="34.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="B1" s="15" t="s">
+      <c r="B1" s="14" t="s">
         <v>110</v>
       </c>
-      <c r="C1" s="15" t="s">
+      <c r="C1" s="14" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="20.25" customHeight="1">
-      <c r="A2" s="12" t="s">
+    <row r="2" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="11" t="s">
         <v>111</v>
       </c>
-      <c r="B2" s="16"/>
-      <c r="C2" s="16"/>
-    </row>
-    <row r="3" spans="1:3" ht="20.25" customHeight="1">
-      <c r="A3" s="8" t="s">
+      <c r="B2" s="15"/>
+      <c r="C2" s="15"/>
+    </row>
+    <row r="3" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="B3" s="17">
+      <c r="B3" s="16">
         <f>224.80894*B2</f>
         <v>0</v>
       </c>
-      <c r="C3" s="17"/>
-    </row>
-    <row r="6" spans="1:3" ht="27.6">
-      <c r="A6" s="7" t="s">
+      <c r="C3" s="16"/>
+    </row>
+    <row r="6" spans="1:3" ht="30" x14ac:dyDescent="0.15">
+      <c r="A6" s="6" t="s">
         <v>113</v>
       </c>
-      <c r="B6" s="15" t="s">
+      <c r="B6" s="14" t="s">
         <v>110</v>
       </c>
-      <c r="C6" s="15" t="s">
+      <c r="C6" s="14" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
-      <c r="A7" s="12" t="s">
+    <row r="7" spans="1:3" ht="15" x14ac:dyDescent="0.15">
+      <c r="A7" s="11" t="s">
         <v>111</v>
       </c>
-      <c r="B7" s="16"/>
-      <c r="C7" s="16"/>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" s="8" t="s">
+      <c r="B7" s="15"/>
+      <c r="C7" s="15"/>
+    </row>
+    <row r="8" spans="1:3" ht="15" x14ac:dyDescent="0.15">
+      <c r="A8" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="B8" s="17">
+      <c r="B8" s="16">
         <f>224.80894*B7</f>
         <v>0</v>
       </c>
-      <c r="C8" s="17"/>
+      <c r="C8" s="16"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.51180555555555496" footer="0.51180555555555496"/>
@@ -5968,68 +5989,68 @@
       <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="13.8"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="7" width="16" style="1" customWidth="1"/>
     <col min="8" max="8" width="15.5" style="1" customWidth="1"/>
-    <col min="9" max="1024" width="10.19921875" style="1" customWidth="1"/>
+    <col min="9" max="1024" width="10.1640625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
-      <c r="A1" s="54" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A1" s="59" t="s">
         <v>114</v>
       </c>
-      <c r="B1" s="54"/>
-      <c r="C1" s="55"/>
-    </row>
-    <row r="2" spans="1:5" s="1" customFormat="1" ht="43.95" customHeight="1">
-      <c r="A2" s="7" t="s">
+      <c r="B1" s="59"/>
+      <c r="C1" s="60"/>
+    </row>
+    <row r="2" spans="1:5" s="1" customFormat="1" ht="44" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="6" t="s">
         <v>115</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="6" t="s">
         <v>116</v>
       </c>
-      <c r="C2" s="45" t="s">
+      <c r="C2" s="44" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="3" spans="1:5" s="1" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A3" s="17"/>
-      <c r="B3" s="17"/>
-      <c r="C3" s="17"/>
-    </row>
-    <row r="6" spans="1:5" ht="17.25" customHeight="1">
-      <c r="A6" s="54" t="s">
+    <row r="3" spans="1:5" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="16"/>
+      <c r="B3" s="16"/>
+      <c r="C3" s="16"/>
+    </row>
+    <row r="6" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="59" t="s">
         <v>118</v>
       </c>
-      <c r="B6" s="54"/>
-      <c r="C6" s="54"/>
-      <c r="D6" s="54"/>
-      <c r="E6" s="54"/>
-    </row>
-    <row r="7" spans="1:5" ht="27.6">
-      <c r="A7" s="7" t="s">
+      <c r="B6" s="59"/>
+      <c r="C6" s="59"/>
+      <c r="D6" s="59"/>
+      <c r="E6" s="59"/>
+    </row>
+    <row r="7" spans="1:5" ht="30" x14ac:dyDescent="0.15">
+      <c r="A7" s="6" t="s">
         <v>119</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="6" t="s">
         <v>120</v>
       </c>
-      <c r="C7" s="7" t="s">
+      <c r="C7" s="6" t="s">
         <v>121</v>
       </c>
-      <c r="D7" s="7" t="s">
+      <c r="D7" s="6" t="s">
         <v>122</v>
       </c>
-      <c r="E7" s="7" t="s">
+      <c r="E7" s="6" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="19.5" customHeight="1">
-      <c r="A8" s="17"/>
-      <c r="B8" s="17"/>
-      <c r="C8" s="17"/>
-      <c r="D8" s="38"/>
-      <c r="E8" s="38"/>
+    <row r="8" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="16"/>
+      <c r="B8" s="16"/>
+      <c r="C8" s="16"/>
+      <c r="D8" s="37"/>
+      <c r="E8" s="37"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -6049,124 +6070,124 @@
       <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="13.8"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="31.69921875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="31.6640625" style="1" customWidth="1"/>
     <col min="2" max="4" width="17" style="1" customWidth="1"/>
-    <col min="5" max="1025" width="10.19921875" style="1" customWidth="1"/>
+    <col min="5" max="1025" width="10.1640625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="27.6">
-      <c r="A1" s="7"/>
-      <c r="B1" s="7" t="s">
+    <row r="1" spans="1:4" ht="30" x14ac:dyDescent="0.15">
+      <c r="A1" s="6"/>
+      <c r="B1" s="6" t="s">
         <v>124</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="6" t="s">
         <v>125</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="6" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="20.25" customHeight="1">
-      <c r="A2" s="8" t="s">
+    <row r="2" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="B2" s="24"/>
-      <c r="C2" s="24"/>
-      <c r="D2" s="25"/>
-    </row>
-    <row r="3" spans="1:4" ht="20.25" customHeight="1">
-      <c r="A3" s="12" t="s">
+      <c r="B2" s="23"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="24"/>
+    </row>
+    <row r="3" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="11" t="s">
         <v>128</v>
       </c>
-      <c r="B3" s="24"/>
-      <c r="C3" s="24"/>
-      <c r="D3" s="25"/>
-    </row>
-    <row r="4" spans="1:4" ht="20.25" customHeight="1">
-      <c r="A4" s="12" t="s">
+      <c r="B3" s="23"/>
+      <c r="C3" s="23"/>
+      <c r="D3" s="24"/>
+    </row>
+    <row r="4" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="11" t="s">
         <v>129</v>
       </c>
-      <c r="B4" s="24"/>
-      <c r="C4" s="24"/>
-      <c r="D4" s="25"/>
-    </row>
-    <row r="5" spans="1:4" ht="20.25" customHeight="1">
-      <c r="A5" s="12" t="s">
+      <c r="B4" s="23"/>
+      <c r="C4" s="23"/>
+      <c r="D4" s="24"/>
+    </row>
+    <row r="5" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="11" t="s">
         <v>130</v>
       </c>
-      <c r="B5" s="24"/>
-      <c r="C5" s="24"/>
-      <c r="D5" s="25"/>
-    </row>
-    <row r="6" spans="1:4" ht="20.25" customHeight="1">
-      <c r="A6" s="12" t="s">
+      <c r="B5" s="23"/>
+      <c r="C5" s="23"/>
+      <c r="D5" s="24"/>
+    </row>
+    <row r="6" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="11" t="s">
         <v>131</v>
       </c>
-      <c r="B6" s="24"/>
-      <c r="C6" s="24"/>
-      <c r="D6" s="25"/>
-    </row>
-    <row r="7" spans="1:4" ht="20.25" customHeight="1">
-      <c r="A7" s="12" t="s">
+      <c r="B6" s="23"/>
+      <c r="C6" s="23"/>
+      <c r="D6" s="24"/>
+    </row>
+    <row r="7" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="11" t="s">
         <v>132</v>
       </c>
-      <c r="B7" s="24"/>
-      <c r="C7" s="24"/>
-      <c r="D7" s="25"/>
-    </row>
-    <row r="8" spans="1:4" ht="20.25" customHeight="1">
-      <c r="A8" s="12" t="s">
+      <c r="B7" s="23"/>
+      <c r="C7" s="23"/>
+      <c r="D7" s="24"/>
+    </row>
+    <row r="8" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="11" t="s">
         <v>133</v>
       </c>
-      <c r="B8" s="9"/>
-      <c r="C8" s="9" t="s">
+      <c r="B8" s="8"/>
+      <c r="C8" s="8" t="s">
         <v>134</v>
       </c>
-      <c r="D8" s="10" t="s">
+      <c r="D8" s="9" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="20.25" customHeight="1">
-      <c r="A9" s="12" t="s">
+    <row r="9" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="11" t="s">
         <v>135</v>
       </c>
-      <c r="B9" s="34"/>
-      <c r="C9" s="34"/>
-      <c r="D9" s="35"/>
-    </row>
-    <row r="10" spans="1:4" ht="20.25" customHeight="1">
-      <c r="A10" s="12" t="s">
+      <c r="B9" s="33"/>
+      <c r="C9" s="33"/>
+      <c r="D9" s="34"/>
+    </row>
+    <row r="10" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="11" t="s">
         <v>136</v>
       </c>
-      <c r="B10" s="24"/>
-      <c r="C10" s="9" t="s">
+      <c r="B10" s="23"/>
+      <c r="C10" s="8" t="s">
         <v>134</v>
       </c>
-      <c r="D10" s="10" t="s">
+      <c r="D10" s="9" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="20.25" customHeight="1">
-      <c r="A11" s="12" t="s">
+    <row r="11" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="11" t="s">
         <v>137</v>
       </c>
-      <c r="B11" s="26"/>
-      <c r="C11" s="26"/>
-      <c r="D11" s="36" t="s">
+      <c r="B11" s="25"/>
+      <c r="C11" s="25"/>
+      <c r="D11" s="35" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="20.25" customHeight="1">
-      <c r="A12" s="12" t="s">
+    <row r="12" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="11" t="s">
         <v>138</v>
       </c>
-      <c r="B12" s="37" t="s">
+      <c r="B12" s="36" t="s">
         <v>134</v>
       </c>
-      <c r="C12" s="26"/>
-      <c r="D12" s="27"/>
+      <c r="C12" s="25"/>
+      <c r="D12" s="26"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.51180555555555496" footer="0.51180555555555496"/>
@@ -6175,6 +6196,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101005A1C128C8C70BC4E92D8177ADAE1643D" ma:contentTypeVersion="8" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="ee558550afd8873a94d9202c4e65fd09">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="df455a44-da03-4d16-893c-189b8c6fe773" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="6720eee272d10e96ce1a0f43b2268405" ns2:_="">
     <xsd:import namespace="df455a44-da03-4d16-893c-189b8c6fe773"/>
@@ -6342,22 +6378,31 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9BA2279B-89E0-49E9-92AF-5FCA1626F28C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="df455a44-da03-4d16-893c-189b8c6fe773"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{08ED7DCF-BCB7-41E9-A19C-6C2BE5CC6D99}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6F624F01-74F8-4713-A5A0-FDC3CF70A5BE}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -6373,28 +6418,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{08ED7DCF-BCB7-41E9-A19C-6C2BE5CC6D99}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9BA2279B-89E0-49E9-92AF-5FCA1626F28C}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="df455a44-da03-4d16-893c-189b8c6fe773"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>